--- a/biology/Zoologie/Amphipsalta_zelandica/Amphipsalta_zelandica.xlsx
+++ b/biology/Zoologie/Amphipsalta_zelandica/Amphipsalta_zelandica.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Amphipsalta zelandica est l'espèce de cigales la plus répandue en Nouvelle-Zélande, où elle est endémique et présente dans la plupart des régions. Elle vit généralement dans les forêts et les zones de brousse ouverte, où les restes de peaux de ses nymphes peuvent être observés sur les troncs et les branches des arbres pendant les mois d'été. Les mâles produisent à l'unisson leur chant, qui peut atteindre des proportions assourdissantes au plus fort de leur population vers février. Des groupes de cigales peuvent soudain passer du son typique des cigales à des clics synchronisés, utilisant leurs ailes pour frapper la surface sur laquelle elles sont posées.
 </t>
@@ -511,13 +523,15 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Ces cigales ont un stade de nymphe avant leur dernière mue (celle qui les rend adultes). À ce stade de nymphe, elles sont d'un blanc crémeux[1] et ressemblent beaucoup à leur forme adulte (mais sans ailes). Les adultes font généralement plus de 2 cm de long[2], les plus grands spécimens mesurant jusqu'à 4 cm, ailes comprises[3]. Les ailes d’Amphipsalta zelandica n'apparaissent qu'après leur dernière mue : elles sont membraneuses, veinées, et filtrent la lumière ultraviolette. Leur envergure est d'environ 6 cm.
-La couleur d’Amphipsalta zelandica peut être noire/verte/marron et beaucoup ont des rayures le long du corps. Leurs antennes ont sept segments, le dernier étant resserré au milieu[4]. Les cigales mâles adultes diffèrent des femelles par leur gaine reproductrice, les femelles n'ayant pas les extensions en forme de doigt des mâles.
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ces cigales ont un stade de nymphe avant leur dernière mue (celle qui les rend adultes). À ce stade de nymphe, elles sont d'un blanc crémeux et ressemblent beaucoup à leur forme adulte (mais sans ailes). Les adultes font généralement plus de 2 cm de long, les plus grands spécimens mesurant jusqu'à 4 cm, ailes comprises. Les ailes d’Amphipsalta zelandica n'apparaissent qu'après leur dernière mue : elles sont membraneuses, veinées, et filtrent la lumière ultraviolette. Leur envergure est d'environ 6 cm.
+La couleur d’Amphipsalta zelandica peut être noire/verte/marron et beaucoup ont des rayures le long du corps. Leurs antennes ont sept segments, le dernier étant resserré au milieu. Les cigales mâles adultes diffèrent des femelles par leur gaine reproductrice, les femelles n'ayant pas les extensions en forme de doigt des mâles.
 			Amphipsalta zelandica vue de dessus.
 			A. zelandica vue de côté.
-Le chant des cigales est le bruit le plus fort émis par un insecte. Les mâles d’Amphipsalta zelandica produisent un chant spécifique à leur espèce, qui permet de les identifier. Un groupe d'impulsions est composé de cinq clics, avec le clic central (troisième clic) plus fort que les quatre autres. Le clic central peut se transformer en deux clics si la cigale est fatiguée et n'a plus d'énergie[5]. Ces clics sont faits par la cigale en frappant ses ailes contre la surface sur laquelle elle est posée. Ces groupes d'impulsions peuvent être produits rapidement et en continu pendant que les mâles chantent en chœur[6].
+Le chant des cigales est le bruit le plus fort émis par un insecte. Les mâles d’Amphipsalta zelandica produisent un chant spécifique à leur espèce, qui permet de les identifier. Un groupe d'impulsions est composé de cinq clics, avec le clic central (troisième clic) plus fort que les quatre autres. Le clic central peut se transformer en deux clics si la cigale est fatiguée et n'a plus d'énergie. Ces clics sont faits par la cigale en frappant ses ailes contre la surface sur laquelle elle est posée. Ces groupes d'impulsions peuvent être produits rapidement et en continu pendant que les mâles chantent en chœur.
 </t>
         </is>
       </c>
@@ -546,9 +560,11 @@
           <t>Alimentation et recherche de nourriture</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les adultes et les immatures se nourrissent tous deux de sève de xylème fabriquée par les plantes. Cette sève est pauvre en nutriments et ne contient pas tous les acides aminés nécessaires, mais pour compenser cela les cigales utilisent une bactérie endosymbiotique pour leur fournir les nutriments manquants[7]. Ce mode d'alimentation fait d’Amphipsalta zelandica un phytophage généraliste, qui se nourrit au détriment de toute gamme de plantes hôtes. Le système racinaire des vergers fournit une bonne source de nourriture pour les nymphes qui vivent dans le sol.
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les adultes et les immatures se nourrissent tous deux de sève de xylème fabriquée par les plantes. Cette sève est pauvre en nutriments et ne contient pas tous les acides aminés nécessaires, mais pour compenser cela les cigales utilisent une bactérie endosymbiotique pour leur fournir les nutriments manquants. Ce mode d'alimentation fait d’Amphipsalta zelandica un phytophage généraliste, qui se nourrit au détriment de toute gamme de plantes hôtes. Le système racinaire des vergers fournit une bonne source de nourriture pour les nymphes qui vivent dans le sol.
 </t>
         </is>
       </c>
@@ -577,11 +593,48 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Amphipsalta zelandica est endémique de Nouvelle-Zélande. Les espèces les plus étroitement apparentées se trouvent en Australie, en Nouvelle-Calédonie et sur l'île Norfolk. Cependant, certaines études sur la faune néo-zélandaise montrent que celle-ci proviennent de plusieurs invasions à travers la mer de Tasman depuis l'Australie ou la Nouvelle-Calédonie[8].
-En Nouvelle-Zélande
-Amphipsalta zelandica est fréquente dans les villes et les cités. Elle est répartie dans tout le pays[9], commune dans l'île du Nord, certaines zones côtières de l'île du Sud, le centre d'Otago et certaines parties de Canterbury.
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Amphipsalta zelandica est endémique de Nouvelle-Zélande. Les espèces les plus étroitement apparentées se trouvent en Australie, en Nouvelle-Calédonie et sur l'île Norfolk. Cependant, certaines études sur la faune néo-zélandaise montrent que celle-ci proviennent de plusieurs invasions à travers la mer de Tasman depuis l'Australie ou la Nouvelle-Calédonie.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Amphipsalta_zelandica</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Amphipsalta_zelandica</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Distribution</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>En Nouvelle-Zélande</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Amphipsalta zelandica est fréquente dans les villes et les cités. Elle est répartie dans tout le pays, commune dans l'île du Nord, certaines zones côtières de l'île du Sud, le centre d'Otago et certaines parties de Canterbury.
 </t>
         </is>
       </c>
